--- a/caseData/caseData.xlsx
+++ b/caseData/caseData.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myjava\github\apiAutoTest\caseData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B90DC-648E-4841-AB84-F7501B17CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15375" windowHeight="12570" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="v4_scenesCase" sheetId="11" r:id="rId1"/>
     <sheet name="variables" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>CaseId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,18 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误的用户名、密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ApiName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确的用户名、密码【传json】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#{username}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,71 +122,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"#{username}", "password":"#{password_wrong}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"", "password":"#{password_correct}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"#{username}", "password":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"token":"${token}","adduser":"qzcsbj","data":{"username":"qzcsbj11","realname":"tester11","sex":"1","phone":"13800000011"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GlobalVariables</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token=$.token;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssertFields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"sqlNo":"1","sql":"delete from users where username = 'qzcsbj11';"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9550;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9420;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9400;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9410;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>#{productname}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinkpad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qzcsbj/user/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"#{username}","password":"123456","realName":"tester","sex":"1","birthday":"1990-06-16","phone":"13500000006","utype":"1","adduser":"#{username}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"sqlNo":"1","sql":"delete from user where username = '#{username}';"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.msg=注册成功;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qzcsbj/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=$.data.token;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.msg=登录成功;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qzcsbj/product/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"product":{"price":9999,"productName":"#{productname}"},"token":"${token}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"sqlNo":"1","sql":"delete from product where product_name = '#{productname}';"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.msg=添加商品成功;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qzcsbj/product/findByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"#{productname}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.msg=查询商品成功;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.msg=查询商品成功啦;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,14 +255,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,13 +282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,9 +298,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -373,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -550,296 +569,298 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2585FDF-C9DE-4F2A-8EE8-46FE932E84AD}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="78" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="33.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="78" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="54">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2"/>
-      <c r="L2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J3"/>
-      <c r="L3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4"/>
-      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://127.0.0.1:9999/login" xr:uid="{D7504A5B-39AF-412F-A500-201445E01480}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://127.0.0.1:9999/addUser" xr:uid="{7F551F86-E6A8-4617-9086-A828A87AA12E}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://127.0.0.1:9999/login" xr:uid="{5CA9991F-B744-4A8E-8C6C-4399FA0F8578}"/>
-    <hyperlink ref="D2" r:id="rId4" display="http://127.0.0.1:9999/login" xr:uid="{07D67341-DF16-4DF7-9214-F8F0D0736336}"/>
-    <hyperlink ref="D3" r:id="rId5" display="http://127.0.0.1:9999/login" xr:uid="{0318803B-618D-43D1-8C1B-EC7B5FB03FC5}"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://127.0.0.1:9999/addUser"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://127.0.0.1:9999/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCA9A31-A700-45B9-A8AB-182ADAF661DD}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>